--- a/kakeibo_screen_matrix.xlsx
+++ b/kakeibo_screen_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee31402ec8028d41/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA40CDC-F141-415A-B180-1E59C16AB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{6DA40CDC-F141-415A-B180-1E59C16AB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAE01F5-1132-46E4-9354-5C123F844403}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="16332" windowHeight="10488" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,160 +25,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>機能名</t>
-  </si>
-  <si>
-    <t>機能詳細</t>
-  </si>
-  <si>
-    <t>関連データ</t>
-  </si>
-  <si>
-    <t>関連ユーザー</t>
-  </si>
-  <si>
     <t>備考</t>
   </si>
   <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>ユーザーがログインする</t>
-  </si>
-  <si>
-    <t>ユーザーID・パスワード</t>
-  </si>
-  <si>
-    <t>管理者・利用者</t>
-  </si>
-  <si>
-    <t>ログアウト</t>
-  </si>
-  <si>
-    <t>セッションを終了する</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>新規登録</t>
-  </si>
-  <si>
-    <t>アカウントを新規作成</t>
-  </si>
-  <si>
-    <t>ユーザー名・パスワード・メール</t>
-  </si>
-  <si>
-    <t>利用者</t>
-  </si>
-  <si>
-    <t>パスワードリセット</t>
-  </si>
-  <si>
-    <t>パスワードを再設定</t>
-  </si>
-  <si>
-    <t>ユーザーID・メールアドレス</t>
-  </si>
-  <si>
-    <t>退会</t>
-  </si>
-  <si>
-    <t>ユーザーが退会処理をする</t>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>ユーザー一覧表示</t>
-  </si>
-  <si>
-    <t>登録済ユーザーを表示</t>
-  </si>
-  <si>
-    <t>ユーザーID・名前・種別</t>
-  </si>
-  <si>
-    <t>管理者</t>
-  </si>
-  <si>
-    <t>収支入力</t>
-  </si>
-  <si>
-    <t>収入・支出データを入力</t>
-  </si>
-  <si>
-    <t>日付・金額・カテゴリ・メモ</t>
-  </si>
-  <si>
-    <t>収支編集</t>
-  </si>
-  <si>
-    <t>登録済データを修正</t>
-  </si>
-  <si>
-    <t>収支削除</t>
-  </si>
-  <si>
-    <t>収支データを削除</t>
-  </si>
-  <si>
-    <t>収支一覧表示</t>
-  </si>
-  <si>
-    <t>登録済データを一覧表示</t>
-  </si>
-  <si>
-    <t>日付・金額・カテゴリ</t>
-  </si>
-  <si>
-    <t>グラフ表示</t>
-  </si>
-  <si>
-    <t>月別・カテゴリ別で可視化</t>
-  </si>
-  <si>
-    <t>収支情報</t>
-  </si>
-  <si>
-    <t>チャレンジ要素</t>
-  </si>
-  <si>
-    <t>目標金額設定</t>
-  </si>
-  <si>
-    <t>月ごとの支出目標を設定</t>
-  </si>
-  <si>
-    <t>月・金額</t>
-  </si>
-  <si>
-    <t>達成状況表示</t>
-  </si>
-  <si>
-    <t>目標に対する進捗を表示</t>
-  </si>
-  <si>
-    <t>目標金額・実績</t>
-  </si>
-  <si>
-    <t>進捗判定</t>
-  </si>
-  <si>
-    <t>目標達成かどうか判定</t>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>画面説明</t>
+  </si>
+  <si>
+    <t>遷移前画面</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>IDとパスワードで認証する画面</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+  </si>
+  <si>
+    <t>ログイン後のメイン画面</t>
+  </si>
+  <si>
+    <t>各機能に遷移</t>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+  </si>
+  <si>
+    <t>アカウント作成画面</t>
+  </si>
+  <si>
+    <t>パスワードリセット画面</t>
+  </si>
+  <si>
+    <t>パスワードを再設定する画面</t>
+  </si>
+  <si>
+    <t>収支入力画面</t>
+  </si>
+  <si>
+    <t>収支情報を新規登録する画面</t>
+  </si>
+  <si>
+    <t>収支一覧画面</t>
+  </si>
+  <si>
+    <t>収支データを一覧表示する画面</t>
+  </si>
+  <si>
+    <t>収支編集画面</t>
+  </si>
+  <si>
+    <t>登録済の収支を編集する画面</t>
+  </si>
+  <si>
+    <t>グラフ表示画面</t>
+  </si>
+  <si>
+    <t>収支をグラフで可視化する画面</t>
+  </si>
+  <si>
+    <t>目標設定画面</t>
+  </si>
+  <si>
+    <t>支出目標金額を設定する画面</t>
+  </si>
+  <si>
+    <t>達成状況画面</t>
+  </si>
+  <si>
+    <t>目標達成の進捗を確認する画面</t>
+  </si>
+  <si>
+    <t>ユーザー一覧画面</t>
+  </si>
+  <si>
+    <t>管理者がユーザーを確認する画面</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +133,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,8 +163,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CF924F-9441-4F8A-B32A-8A32D30D7D76}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -549,269 +498,183 @@
     <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kakeibo_screen_matrix.xlsx
+++ b/kakeibo_screen_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee31402ec8028d41/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{6DA40CDC-F141-415A-B180-1E59C16AB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAE01F5-1132-46E4-9354-5C123F844403}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{6DA40CDC-F141-415A-B180-1E59C16AB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9CB28E-AE1D-4467-A1E0-0AAE37864CD6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="16332" windowHeight="10488" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -108,10 +108,31 @@
     <t>目標達成の進捗を確認する画面</t>
   </si>
   <si>
+    <t>管理者がユーザーを確認する画面</t>
+  </si>
+  <si>
+    <t>ユーザー編集画面</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者がユーザー情報を編集する画面</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ユーザー一覧画面</t>
-  </si>
-  <si>
-    <t>管理者がユーザーを確認する画面</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -484,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CF924F-9441-4F8A-B32A-8A32D30D7D76}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="29.69921875" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
@@ -663,13 +684,27 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/kakeibo_screen_matrix.xlsx
+++ b/kakeibo_screen_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee31402ec8028d41/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{6DA40CDC-F141-415A-B180-1E59C16AB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9CB28E-AE1D-4467-A1E0-0AAE37864CD6}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{6DA40CDC-F141-415A-B180-1E59C16AB419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0CC1C1D-3037-4F06-BDC4-E0DC9E5FFE26}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="16332" windowHeight="10488" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,33 @@
   </si>
   <si>
     <t>ユーザー一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除確認画面</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを削除するか確認する画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー編集画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -505,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CF924F-9441-4F8A-B32A-8A32D30D7D76}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -707,6 +734,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
